--- a/docs/画面項目定義書/mo_artifact_upload.xlsx
+++ b/docs/画面項目定義書/mo_artifact_upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A3F07-CDAB-4E79-80BB-0BB97D4E1B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEE7CB-E73A-4960-979B-7D26A0039091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -726,19 +726,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1190,21 +1190,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1224,7 +1224,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1233,7 +1233,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1242,11 +1242,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1255,11 +1255,11 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1277,7 +1277,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="24">
         <v>4</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="27"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="29"/>
@@ -1439,11 +1439,11 @@
       <c r="E16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="29"/>
@@ -1501,11 +1501,11 @@
       <c r="C20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1538,21 +1538,21 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="24">
         <v>16</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1561,7 +1561,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -1570,7 +1570,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -1579,7 +1579,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>

--- a/docs/画面項目定義書/mo_artifact_upload.xlsx
+++ b/docs/画面項目定義書/mo_artifact_upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEE7CB-E73A-4960-979B-7D26A0039091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E9B538-D376-43F9-9BFB-9D94893C31B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -208,16 +208,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>仮想マシンを選択</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力覧タイトル「説明」</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクラン</t>
@@ -326,6 +316,13 @@
   </si>
   <si>
     <t>mo_artifact_upload.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1190,21 +1187,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1212,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1224,7 +1221,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1233,7 +1230,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1242,7 +1239,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
@@ -1255,20 +1252,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1277,7 +1274,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1332,10 +1329,10 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1351,10 +1348,10 @@
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13">
       <c r="A12" s="24">
         <v>4</v>
       </c>
@@ -1373,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
@@ -1421,7 +1418,7 @@
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="34" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
@@ -1440,15 +1437,15 @@
         <v>27</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>11</v>
@@ -1465,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>28</v>
@@ -1479,14 +1476,14 @@
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
@@ -1496,16 +1493,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1516,7 +1513,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1527,7 +1524,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1538,21 +1535,21 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="24">
         <v>16</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1561,7 +1558,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -1570,7 +1567,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -1579,7 +1576,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
